--- a/src/test/data/list.xlsx
+++ b/src/test/data/list.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="4100" yWindow="0" windowWidth="25600" windowHeight="17340" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -66,6 +67,61 @@
   </si>
   <si>
     <t>MEMO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字コード</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./src/test/data/sample.sh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UTF-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows-31J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./src/test/data/sample.sql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能一覧</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -122,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,8 +186,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -139,20 +210,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -562,4 +643,76 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>